--- a/results/internal_amsterdam_result_dataframe.xlsx
+++ b/results/internal_amsterdam_result_dataframe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Heroic\ESICM\AF_model\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Heroic\ESICM\atrial_fibrillation_prediction\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{22AE3FB9-CDF7-4AD1-AE3D-48FAD51D69CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4552CBA4-AD4F-4D7C-8096-925EE8A07866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>model</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>auc</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>ECSE</t>
   </si>
   <si>
     <t>base model</t>
@@ -909,15 +915,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -957,16 +966,22 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>13191</v>
@@ -998,16 +1013,22 @@
       <c r="M2" s="1">
         <v>0.79809480741802397</v>
       </c>
+      <c r="N2" s="1">
+        <v>2.4463452181446899E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3.35913059266024E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>378</v>
@@ -1039,16 +1060,22 @@
       <c r="M3" s="1">
         <v>0.80986987818383105</v>
       </c>
+      <c r="N3" s="1">
+        <v>6.4921468921388406E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>4.0170111736026498E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>7733</v>
@@ -1080,16 +1107,22 @@
       <c r="M4" s="1">
         <v>0.71707521239488703</v>
       </c>
+      <c r="N4" s="1">
+        <v>0.11550043393227399</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-8.9221339047326098E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>298</v>
@@ -1121,16 +1154,22 @@
       <c r="M5" s="1">
         <v>0.74654294851583203</v>
       </c>
+      <c r="N5" s="1">
+        <v>7.0739786587044301E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3.34268169685965E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>13320</v>
@@ -1162,16 +1201,22 @@
       <c r="M6" s="1">
         <v>0.74910634106775498</v>
       </c>
+      <c r="N6" s="1">
+        <v>2.3961090728485301E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3.1363005998703399E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>350</v>
@@ -1202,6 +1247,12 @@
       </c>
       <c r="M7" s="1">
         <v>0.78035829122645795</v>
+      </c>
+      <c r="N7" s="1">
+        <v>7.3051801555450296E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3.8524576911574702E-2</v>
       </c>
     </row>
   </sheetData>
